--- a/1.xlsx
+++ b/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haroo\Desktop\Course\Course 1 Final\01 Example 1 - Formulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSComarch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A947300E-0DEE-41B8-B252-6E14DCE85FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE9CD6A-0D9F-4917-BD0F-051A5764E6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean Data" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,8 +433,8 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,44 +713,248 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
-    <col min="8" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="12" width="8.85546875" style="1"/>
+    <col min="13" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="str" cm="1">
+        <f t="array" ref="J2">IFERROR(
+  INDEX(
+    TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," ")),
+    MATCH(
+      0,
+      COUNTIF($J$1:J1,TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))),
+      0
+    )
+  ),
+  ""
+)</f>
+        <v>Region</v>
+      </c>
+      <c r="L2" s="1" cm="1">
+        <f t="array" ref="L2">MAX(IF(TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J2,
+         IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f t="array" ref="M2">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A1)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A1)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Ada Lovelace</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:16" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="1" t="str" cm="1">
+        <f t="array" ref="J3">IFERROR(
+  INDEX(
+    TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," ")),
+    MATCH(
+      0,
+      COUNTIF($J$1:J2,TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))),
+      0
+    )
+  ),
+  ""
+)</f>
+        <v>Northeast</v>
+      </c>
+      <c r="L3" s="1" cm="1">
+        <f t="array" ref="L3">MAX(IF(TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J3,
+         IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)))</f>
+        <v>750</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f t="array" ref="M3">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A2)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A2)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Carol Shaw</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="str" cm="1">
+        <f t="array" ref="J4">IFERROR(
+  INDEX(
+    TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," ")),
+    MATCH(
+      0,
+      COUNTIF($J$1:J3,TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))),
+      0
+    )
+  ),
+  ""
+)</f>
+        <v>West</v>
+      </c>
+      <c r="L4" s="1" cm="1">
+        <f t="array" ref="L4">MAX(IF(TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J4,
+         IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)))</f>
+        <v>850</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="array" ref="M4">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A3)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A3)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Charles Babbage</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
@@ -746,8 +972,61 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="1" cm="1">
+        <f t="array" ref="L5">MAX(IF(TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J5,
+         IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="array" ref="M5">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A4)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A4)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <v>1</v>
       </c>
@@ -769,8 +1048,43 @@
       <c r="P6" s="15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R6" s="1" t="str">
+        <f t="array" aca="1" ref="R6" ca="1">IFERROR(
+  INDEX($D$2:$D$100,
+    SMALL(
+      IF(
+        ($E$2:$E$100=$Q$6)*
+        ( IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+          =
+          MAX(($E$2:$E$100=$Q$6)*
+              IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+          )
+        ),
+        ROW($D$2:$D$100)-ROW($D$2)+1
+      ),
+      WIERSZE($S$5:S5)
+    )
+  ),
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="S6" s="1" t="e">
+        <f t="array" ref="S6">INDEX($D$2:$D$100,
+  MATCH(
+    MAX(
+      ($E$2:$E$100=$Q$6)*
+      VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",",""))
+    ),
+    ($E$2:$E$100=$Q$6)*
+    VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),
+    0
+  )
+)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="6">
         <v>2</v>
       </c>
@@ -789,10 +1103,46 @@
       <c r="J7" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="M7" s="1">
+        <f>SUM(B2:B100)</f>
+        <v>0</v>
+      </c>
       <c r="O7" s="10"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P7" s="16">
+        <f>SUM(G2:G50)</f>
+        <v>16680</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f t="array" aca="1" ref="R7" ca="1">IFERROR(
+  INDEX($D$2:$D$100,
+    SMALL(
+      IF(
+        ($E$2:$E$100=$Q$6)*
+        ( IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+          =
+          MAX(($E$2:$E$100=$Q$6)*
+              IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+          )
+        ),
+        ROW($D$2:$D$100)-ROW($D$2)+1
+      ),
+      WIERSZE($S$5:S6)
+    )
+  ),
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="S7" s="1" t="e" cm="1">
+        <f t="array" ref="S7">MAX(($E$2:$E$100=$Q$6)*$G$2:$G$100)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T7" s="1" t="e" cm="1">
+        <f t="array" ref="T7">MAX(($E$2:$E$100=$Q$6)*$G$2:$G$100)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="6">
         <v>3</v>
       </c>
@@ -811,9 +1161,41 @@
       <c r="J8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="14" t="str">
+        <f>INDEX(D:D, MATCH(MAX(G:G), G:G, 0))</f>
+        <v>Charles Babbage</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f t="array" aca="1" ref="R8" ca="1">IFERROR(
+  INDEX($D$2:$D$100,
+    SMALL(
+      IF(
+        ($E$2:$E$100=$Q$6)*
+        ( IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+          =
+          MAX(($E$2:$E$100=$Q$6)*
+              IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+          )
+        ),
+        ROW($D$2:$D$100)-ROW($D$2)+1
+      ),
+      WIERSZE($S$5:S7)
+    )
+  ),
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="S8" s="1" cm="1">
+        <f t="array" ref="S8">MAX(IF($E$2:$E$100=$Q$6,
+    IFERROR(
+      VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),
+    0)
+))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="6">
         <v>4</v>
       </c>
@@ -827,14 +1209,77 @@
         <v>5</v>
       </c>
       <c r="G9" s="8">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R9" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="R9" ca="1">IFERROR(
+  INDEX($B$2:$B$100,
+    SMALL(
+      IF(
+        ($C$2:$C$100=$Q$6)*
+        ( IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($E$2:$E$100,"$","")," ",""),CHAR(160),""),",","")),0)
+          =
+          MAX(($C$2:$C$100=$Q$6)*
+              IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($E$2:$E$100,"$","")," ",""),CHAR(160),""),",","")),0)
+          )
+        ),
+        ROW($B$2:$B$100)-ROW($B$2)+1
+      ),
+      WIERSZE($S$5:S8)
+    )
+  ),
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="S9" s="1" t="str">
+        <f t="array" ref="S9">INDEX($D$2:$D$100,
+  MATCH(
+    MAX(
+      IF(
+        TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))="West",
+        IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+      )
+    ),
+    IF(
+      TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))="West",
+      IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+    ),
+    0
+  )
+)</f>
+        <v>Carol Shaw</v>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f t="array" ref="U9">INDEX($D$2:$D$100,
+  MATCH(
+    MAX(
+      IF(
+        TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J2,
+        IFERROR(
+          VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),
+          0
+        )
+      )
+    ),
+    IF(
+      TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J2,
+      IFERROR(
+        VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),
+        0
+      )
+    ),
+    0
+  )
+)</f>
+        <v>Salesperson</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="6">
         <v>5</v>
       </c>
@@ -850,8 +1295,71 @@
       <c r="G10" s="8">
         <v>450</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R10" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="R10" ca="1">IFERROR(
+  INDEX($B$2:$B$100,
+    SMALL(
+      IF(
+        ($C$2:$C$100=$Q$6)*
+        ( IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($E$2:$E$100,"$","")," ",""),CHAR(160),""),",","")),0)
+          =
+          MAX(($C$2:$C$100=$Q$6)*
+              IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($E$2:$E$100,"$","")," ",""),CHAR(160),""),",","")),0)
+          )
+        ),
+        ROW($B$2:$B$100)-ROW($B$2)+1
+      ),
+      WIERSZE($S$5:S9)
+    )
+  ),
+  ""
+)</f>
+        <v/>
+      </c>
+      <c r="S10" s="1" t="str">
+        <f t="array" ref="S10">INDEX($D$2:$D$100,
+  MATCH(
+    MAX(
+      IF(
+        TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))="West",
+        IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+      )
+    ),
+    IF(
+      TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))="West",
+      IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+    ),
+    0
+  )
+)</f>
+        <v>Carol Shaw</v>
+      </c>
+      <c r="U10" s="1" t="str">
+        <f t="array" ref="U10">INDEX($D$2:$D$100,
+  MATCH(
+    MAX(
+      IF(
+        TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J3,
+        IFERROR(
+          VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),
+          0
+        )
+      )
+    ),
+    IF(
+      TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J3,
+      IFERROR(
+        VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),
+        0
+      )
+    ),
+    0
+  )
+)</f>
+        <v>Ada Lovelace</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="6">
         <v>6</v>
       </c>
@@ -868,8 +1376,50 @@
         <v>400</v>
       </c>
       <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S11" s="1" t="str">
+        <f t="array" ref="S11">INDEX($D$2:$D$100,
+  MATCH(
+    MAX(
+      IF(
+        TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))="West",
+        IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+      )
+    ),
+    IF(
+      TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))="West",
+      IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+    ),
+    0
+  )
+)</f>
+        <v>Carol Shaw</v>
+      </c>
+      <c r="U11" s="1" t="str">
+        <f t="array" ref="U11">INDEX($D$2:$D$100,
+  MATCH(
+    MAX(
+      IF(
+        TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J4,
+        IFERROR(
+          VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),
+          0
+        )
+      )
+    ),
+    IF(
+      TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J4,
+      IFERROR(
+        VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),
+        0
+      )
+    ),
+    0
+  )
+)</f>
+        <v>Carol Shaw</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="6">
         <v>7</v>
       </c>
@@ -886,8 +1436,50 @@
         <v>600</v>
       </c>
       <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S12" s="1" t="str">
+        <f t="array" ref="S12">INDEX($D$2:$D$100,
+  MATCH(
+    MAX(
+      IF(
+        TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))="West",
+        IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+      )
+    ),
+    IF(
+      TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))="West",
+      IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),0)
+    ),
+    0
+  )
+)</f>
+        <v>Carol Shaw</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="array" ref="U12">INDEX($D$2:$D$100,
+  MATCH(
+    MAX(
+      IF(
+        TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J5,
+        IFERROR(
+          VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),
+          0
+        )
+      )
+    ),
+    IF(
+      TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J5,
+      IFERROR(
+        VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),
+        0
+      )
+    ),
+    0
+  )
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="6">
         <v>8</v>
       </c>
@@ -903,9 +1495,81 @@
       <c r="G13" s="8">
         <v>650</v>
       </c>
+      <c r="J13" s="1" t="str">
+        <f t="array" ref="J13">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A1)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A1)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Ada Lovelace</v>
+      </c>
       <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U13" s="1" t="e">
+        <f t="array" ref="U13">INDEX($D$2:$D$100,
+  MATCH(
+    MAX(
+      IF(
+        TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J6,
+        IFERROR(
+          VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),
+          0
+        )
+      )
+    ),
+    IF(
+      TRIM(SUBSTITUTE($E$2:$E$100,CHAR(160)," "))=J6,
+      IFERROR(
+        VALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($G$2:$G$100,"$","")," ",""),CHAR(160),""),",","")),
+        0
+      )
+    ),
+    0
+  )
+)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="6">
         <v>9</v>
       </c>
@@ -921,8 +1585,56 @@
       <c r="G14" s="8">
         <v>350</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="1" t="str" cm="1">
+        <f t="array" ref="J14">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A2)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A2)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Carol Shaw</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="6">
         <v>10</v>
       </c>
@@ -938,8 +1650,56 @@
       <c r="G15" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="1" t="str" cm="1">
+        <f t="array" ref="J15">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A3)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A3)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Charles Babbage</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="6">
         <v>11</v>
       </c>
@@ -955,8 +1715,56 @@
       <c r="G16" s="8">
         <v>550</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="1" t="str" cm="1">
+        <f t="array" ref="J16">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A4)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A4)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="6">
         <v>12</v>
       </c>
@@ -972,8 +1780,56 @@
       <c r="G17" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="1" t="str" cm="1">
+        <f t="array" ref="J17">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A5)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A5)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="6">
         <v>13</v>
       </c>
@@ -989,8 +1845,56 @@
       <c r="G18" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="1" t="str" cm="1">
+        <f t="array" ref="J18">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A6)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A6)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="6">
         <v>14</v>
       </c>
@@ -1006,8 +1910,56 @@
       <c r="G19" s="8">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="1" t="str" cm="1">
+        <f t="array" ref="J19">IFERROR(
+  INDEX($D$6:$D$100,
+    _xlfn.AGGREGATE(
+      15, 6,
+      (ROW($D$6:$D$100)-ROW($D$6)+1) /
+      (
+        (
+          SUMIFS(
+            $G$6:$G$100,
+            $D$6:$D$100,$D$6:$D$100,
+            $E$6:$E$100,
+            INDEX($E$6:$E$100,
+              _xlfn.AGGREGATE(
+                15,6,
+                (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                ROW(A7)
+              )
+            )
+          )
+          =
+          MAX(
+            SUMIFS(
+              $G$6:$G$100,
+              $D$6:$D$100,$D$6:$D$100,
+              $E$6:$E$100,
+              INDEX($E$6:$E$100,
+                _xlfn.AGGREGATE(
+                  15,6,
+                  (ROW($E$6:$E$100)-ROW($E$6)+1) /
+                  (MATCH($E$6:$E$100,$E$6:$E$100,0)=ROW($E$6:$E$100)-ROW($E$6)+1),
+                  ROW(A7)
+                )
+              )
+            )
+          )
+        )
+        *
+        (MATCH($D$6:$D$100,$D$6:$D$100,0)=ROW($D$6:$D$100)-ROW($D$6)+1)
+      ),
+      1
+    )
+  ),
+""
+)</f>
+        <v>Alan Turing</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="6">
         <v>15</v>
       </c>
@@ -1024,7 +1976,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="6">
         <v>16</v>
       </c>
@@ -1041,7 +1993,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="6">
         <v>17</v>
       </c>
@@ -1058,7 +2010,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="6">
         <v>18</v>
       </c>
@@ -1075,7 +2027,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6">
         <v>19</v>
       </c>
@@ -1092,7 +2044,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="6">
         <v>20</v>
       </c>
@@ -1109,7 +2061,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="6">
         <v>21</v>
       </c>
@@ -1126,7 +2078,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="6">
         <v>22</v>
       </c>
@@ -1143,7 +2095,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="6">
         <v>23</v>
       </c>
@@ -1160,7 +2112,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="6">
         <v>24</v>
       </c>
@@ -1177,7 +2129,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="6">
         <v>25</v>
       </c>
@@ -1194,7 +2146,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="31" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="6">
         <v>26</v>
       </c>
@@ -1211,7 +2163,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="6">
         <v>27</v>
       </c>
@@ -1228,7 +2180,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="6">
         <v>28</v>
       </c>
@@ -1245,7 +2197,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="6">
         <v>29</v>
       </c>
@@ -1262,7 +2214,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="6">
         <v>30</v>
       </c>
